--- a/TienXuLy.xlsx
+++ b/TienXuLy.xlsx
@@ -1325,9 +1325,6 @@
     <t>Xin hỏi mức giá 44,990 triệu là giá trả góp 0 đồng. Còn khi mua trực tiếp được trừ thêm 10% hả shop?</t>
   </si>
   <si>
-    <t>M k hài lòng sp iPhone 13promax 1t mua tại tgdd. Dung lượng máy 1T mà m cài thêm có Facebook, messenger, shopee mà còn trống giá 3.2gh. iPhone vừa chạy ios vừa chạy được ch play. Mới tải 3 ứng dụng trên ch play. Máy mua từ 12/21 mà như cục sắt. Lên YouTube xem thì báo bộ nhớ trong hết dung lượng yêu cầu làm trống bộ nhớ</t>
-  </si>
-  <si>
     <t>Sài mượt ok nhưng loa nghe cứ rè rè kiểu gì ấy</t>
   </si>
   <si>
@@ -1566,6 +1563,9 @@
   </si>
   <si>
     <t>Điện thoại mới mua , mà sao thao tác chậm quá , chức năng sữ lý quay lại chậm . chậm hơn cái nokia đời củ , cách đây 10 năm .</t>
+  </si>
+  <si>
+    <t>Mình không hài lòng sp iPhone 13promax 1t mua tại thế giới di động. Dung lượng máy 1T mà mình cài thêm có Facebook, messenger, shopee mà còn trống giá 3.2gh. iPhone vừa chạy ios vừa chạy được ch play. Mới tải 3 ứng dụng trên ch play. Máy mua từ 12/21 mà như cục sắt. Lên YouTube xem thì báo bộ nhớ trong hết dung lượng yêu cầu làm trống bộ nhớ</t>
   </si>
 </sst>
 </file>
@@ -1935,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="A311" sqref="A311:XFD311"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="A310" sqref="A310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>433</v>
+        <v>513</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -2418,23 +2418,23 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B210" t="s">
         <v>151</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B222" t="s">
         <v>151</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B224" t="s">
         <v>7</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="269" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>7</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B276" t="s">
         <v>7</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B285" t="s">
         <v>7</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B302" t="s">
         <v>7</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>

--- a/TienXuLy.xlsx
+++ b/TienXuLy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad\Desktop\qlyBanHang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\qlyBanHang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="553">
   <si>
     <t>Bình luận</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Dùng được 1 năm vừa hết bảo hành thì pin phù đội cả nắp lưng lên . Dòng samsung chán nhỉ</t>
   </si>
   <si>
-    <t xml:space="preserve"> năm rồi máy vẫn trâu ok mượt mà. Dùng nói chung là khá ok, camera ổn định trong tầm giá, pin trâu cực kỳ dùng cực kỳ lâu luôn. Nói chung đây là sản phẩm tầm trung khá ổn định đáng mua. Chỉ tiếc là thiết kế ko đc đẹp cho lắm.</t>
-  </si>
-  <si>
     <t>Máy rất tốt, dù đã qua sử dụng nhưng như là máy mới....nhân viên chăm sóc tận tình</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>Mới mua chưa được 6 tháng sài nhanh hết pin Mua gần 27tr . Giờ còn 21tr tr ơi</t>
   </si>
   <si>
-    <t>Mình mua đợt tết.máy xài ok</t>
-  </si>
-  <si>
     <t>xài phê chữ ê kéo dàiiiiiiiiiiiiiiiiiiiiiiii, nói chung là ok trong mức giá trên 20tr</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>Đt Sài cũng ổn mỗi cái hay Ci Zalo gọi video call tự tắt cam r không kết thúc cuộc gọi được</t>
   </si>
   <si>
-    <t>máy giật lag,cảm ứng có vẻ không được nhậy</t>
-  </si>
-  <si>
     <t>Mua 3 tháng chạy đa nhiệm đơ như cây cơ. Vừa xem video fb vừa xài mini mà lắc như quỷ</t>
   </si>
   <si>
@@ -428,9 +419,6 @@
     <t>Điện thoại em mới mua chưa được 1 tháng, mà em xem thì thấy như này. Là sao ạ? Có ai giải thích giúp em ạ</t>
   </si>
   <si>
-    <t>Mới mua trong ngày gọi Zalo sóng đầy mà cứ báo mạng kg ổn định, truy cạp đọc bào chậm như rùa bò,</t>
-  </si>
-  <si>
     <t>Trong tầm giá thì Máy thiết kế đẹp, mỏng nhẹ. Màn hình cảm ứng mượt. Pin sử dụng cũng tạm ko nhiều lắm</t>
   </si>
   <si>
@@ -506,9 +494,6 @@
     <t>Máy vừa mua về đã bị lỗi pin sạc 3h không nổi 10% rút ra thì máy khởi động lại thì pin lên 100%</t>
   </si>
   <si>
-    <t>Ok tôi thấy máy thâý khi Sài thấy ổn</t>
-  </si>
-  <si>
     <t>Đt xài đc 1 tháng r nó bị loạn cảm ứng thì giải quyết sao ạ mong đc giải quyết ạ</t>
   </si>
   <si>
@@ -680,15 +665,9 @@
     <t>Điện thoại rất chất lượng. Mình mua ở ĐMX đường 5 BH-ĐH. Nhân viên rất nhiệt tình và dễ thương nha. Mấy chị rất nhiệt tình. Điện thoại rất đẹp, loa lớn, màn hình và cảm ứng okay, mượt và rất ổn trong tầm giá.</t>
   </si>
   <si>
-    <t>ất ok nhé mới mua đây mặc dù là máy cũ chỉ 700k thôi nhưng duyệt web,youtube,chơi một số game nhẹ như đánh bài zombie tsunami ok nhé.nv bán k rành nên cài youtube go rồi quá trời ứng dụng bản go nhưng k cần thiết nhé.đt đủ sức đáp ứng bản thường.loa nghe k lớn lắm nhưng rất trong và hay.pin thì sau 6 tiếng sử dụng.đa số cài ung dụng.cài đặt lại máy.nghe nhạc ít.doc báo.thì hao khoảng 30%.noi chung 700k ok r</t>
-  </si>
-  <si>
     <t>ất tệ . Đt gọi thì đc nhận cuộc gọi thì bảo đường dây bận . Rồi đi cho nhân viên kiểm tra lại nói là do nhà mạng. Trong khi mình gắn . Mobi . Viettel. Vina. Cả 3 mạng lun đều như vậy. Như 3 sim đó gắn máy khác vẫn Sài bình thường nghe gọi vẫn OK . Ngoài đường thì dịch tgdd thì chỗ mở cửa chổ ko đi vòng vòng mấy chỗ mới có chỗ mở cửa để cho nhân viên coi lại dùm . Mà vẫn vậy thôi có 230k để đó trưng chơi chứ chạy tới chạy lui lỡ gặp chị covi nữa thì khổ</t>
   </si>
   <si>
-    <t>Ko thua gì 3310 chính hãng . mang riềng là TQ nhưng xài còn hơn chính hãng . quá tuyệt</t>
-  </si>
-  <si>
     <t>Trời ơi, mới mua được hai tháng dùng mà giờ điện thoại nó không hiện màn hình. Mang đi các quán sửa thì họ bảo màn hình không có tại Việt Nam, không sửa được.</t>
   </si>
   <si>
@@ -704,9 +683,6 @@
     <t>Xài tốt ổn nha thao tác màn hình hơi chậm k bt về sau còn ổn định hay k cùng chờ nhé</t>
   </si>
   <si>
-    <t>Trình ghi âm cuộc gọi k thấy. Nếu muốn ghi âm cuộ c gọi t nên dùng app nào. Thử nhìu app vẫn k ghi âm đc</t>
-  </si>
-  <si>
     <t>Điện thoại nhiều phần mềm vô dụng được cài sẵn từ NSX và HOÀN TOÀN KHÔNG THỂ GỠ CÀI ĐẶT các phần mềm này theo cách thông thường.</t>
   </si>
   <si>
@@ -746,9 +722,6 @@
     <t>Đánh giá 5 sao dù có 1 vàu điểm trừ nhỏ Tuy nhiên máy khá hợp vs các cụ vì loa to, chữ to , pin trâu. Điểm trừ lớn nhất vs mình đó là kho nhạc chuông.ít quá</t>
   </si>
   <si>
-    <t>Mới sử dụng được máy bữa nhưng thấy rất tốt Pin khá trâu Loa nge gọi to Âm thanh khỏi bàn</t>
-  </si>
-  <si>
     <t>Máy ổn. Loa toa. Để tắt Đọc số, các bạn vào Menu -&gt; Thêm -&gt; King Talker -&gt; Chọn tắt</t>
   </si>
   <si>
@@ -767,9 +740,6 @@
     <t>Sản phẩm tốt. Chức năng vẫn như thế hệ trước. Pin dùng được 7 ngày, nghe gọi to rõ. Hình thức đẹp, nhất là màu trắng, chỉ có điều máy hơi ọp ẹp, không được cứng cáp.</t>
   </si>
   <si>
-    <t>Sản phẩm đẹp, loa to đặc biệt nghe đài fm rất hay và không cần dây . Mầu green lại mắt</t>
-  </si>
-  <si>
     <t>Mua 2 cái thì cả 2 cái đều bị lỗi sạc không vào</t>
   </si>
   <si>
@@ -782,21 +752,9 @@
     <t>Máy đẹp, cầm chắc tay không ọp ẹp. Pin khoẻ, xài khá nhiều chắc gần 1 tuần. Màn hình sáng đẹp, nghe gọi loa trong và chuông ngoài to rõ, bàn phím nẩy tốt. Phần mềm danh bạ thông minh. Xài ăn đứt mấy ông Nokia.</t>
   </si>
   <si>
-    <t>Pin trâu kinh khủng,nghe gọi thoải mái,mỗi tội điện thoại to,bỏ túi đem đi khó,radio bắt sóng kém,hay bị chập chờn</t>
-  </si>
-  <si>
-    <t>Pin trâu thiệt nhưng củ sạc bị hư đi kiếm khắp nơi(kể cả các shoop trên mạng)không ra cũng là thiệt luôn.</t>
-  </si>
-  <si>
-    <t>khong có nut căm tai nghe. chup anh quá mờ. đen pin sáng quá gần. pin khá ổn định đai FM khá ổn</t>
-  </si>
-  <si>
     <t>Cũng ok . Nhưng giao hàng lâu quá, 1 tuần mới nhận được</t>
   </si>
   <si>
-    <t>Xài okxaif ok</t>
-  </si>
-  <si>
     <t>Nhân viên vui vẻ nhiệt tình.sản phẩm ưng ý.tgdd là nơi đáng để tới.chúc anh chị đón năm mới nhiều sức khoẻ nhiều thành công niềm vui trong công việc và cuộc sống</t>
   </si>
   <si>
@@ -833,9 +791,6 @@
     <t>Máy có ưu điểm là kết nối wifi Còn lại nghe gọi thì bình thường Phím bấm hay bị đơ Vỏ bên ngoài ọp ẹp không cứng cáp</t>
   </si>
   <si>
-    <t>Nói thật mua máy về để dùng cho vui thôi , nhưng mà n đơ lag lắm luôn , có lẽ nên mua 1 con Nokia làm máy phụ tốt hơn nhiều</t>
-  </si>
-  <si>
     <t>Máy rất tốt, tôi muốn hỏi có phụ kiện máy nữa ko. Tôi muốn mua thêm 1 quả pin nữa. Còn hàng pin không?</t>
   </si>
   <si>
@@ -860,9 +815,6 @@
     <t>pin yếu ít chức năng giá cao</t>
   </si>
   <si>
-    <t>Rat tot noi dong coi da nghe goi ro pin trau hy vong ben voi thoi gian se mua ung ho tiep</t>
-  </si>
-  <si>
     <t>Máy mới mua mà mở điện thoại không lên. Sạc thì không được. Dịch bệnh vầy nên rất khó khi đi tới đi lui để Bảo hành. Mong DMX kiểm tra máy trước khi giao cho KH.</t>
   </si>
   <si>
@@ -887,9 +839,6 @@
     <t>San pham tot</t>
   </si>
   <si>
-    <t>Cảm ứng mượt, nhanh. Màn hình khá nét, màu đẹp, sống động, sáng nhìn ngoài trời nắng thoải mái. Pin rẩt trâu game cả ngày không hết. Tốc chiến, liên quân, world of tank bao mượt. Camera ok. Sử dụng thực tế cảm giác ổn hơn nhiều cấu hình trên giấy. Đáng tiền.</t>
-  </si>
-  <si>
     <t>xài rất tốt, chơi game mượt mà nhưng do chip còn mới chưa được tối ưu nên có một số game bị lỗi!</t>
   </si>
   <si>
@@ -911,9 +860,6 @@
     <t>Sản phẩm chất lượng, trước xài 10s,này qua xài 11 pro thấy xứng đáng với hơn 7 triệu.</t>
   </si>
   <si>
-    <t>Máy sài ngon. Khâ hai long. Bưa mua cho mẹ dùng ok quá ra mua thêm cái nưa cho con học online. Nên mua</t>
-  </si>
-  <si>
     <t>Lúc đầu thấy mượt về sau thấy lag và tự nhiên sập nguồn Nói chung là tệ Không nên mua</t>
   </si>
   <si>
@@ -944,9 +890,6 @@
     <t>Tệ hại mua được 10 tháng lỗi không ai gọi đến mà nghe được tiếng chuông, hãng đổ thừa kh ,chính thức chuyển sang oppo</t>
   </si>
   <si>
-    <t>Máy mua chưa đầy 1 tháng vừa đi mưa 1 ngày phải thay cái main 2tr4 bằng gần nửa con máy Mọi người k nên mua</t>
-  </si>
-  <si>
     <t>Đây là cái samsung cuối cùng tôi dùng.. vì quá tệ.. tất cả mọi thứ đều quá tệ 1 sao cho A32</t>
   </si>
   <si>
@@ -956,9 +899,6 @@
     <t>Máy bị lỗi khi bắt sóng wifi, thường xuyên rớt mạng. Đề nghị sam sung thu hồi sản phẩm lỗi lại cho khách hàng</t>
   </si>
   <si>
-    <t>A32 này thực sự thất vọng.nào là cheo máy camera đen xì.sóng thì chập chờn.ko đáng 2tr.mua máy này gọi là của nợ</t>
-  </si>
-  <si>
     <t>Máy ruốt ngày rớt mạng.đơ màn hình.wifi quá kém chưa bao giờ dùng điện thoại nào mà nó chán như ss A 32 này</t>
   </si>
   <si>
@@ -1022,9 +962,6 @@
     <t>A32 là dòng sản phẩm lỗi nhất của sasmung sản xuất. Sai lầm khi mua ss A32, máy hay bị tắt nguồn và pin tụt không có lí do. Nhiều lúc vào chụp hình hay xem tiktok mà đơ máy luôn, thất vọng…</t>
   </si>
   <si>
-    <t>May bi lỗi wifi ko kết nối tụ động dc, tắt máy mo lên moi kết noi dc Còn 3/4 g thì phai noi la rất rất yếu, dù la vẫn còn toc độ cao mong phắn hồi sớm từ nhà sang xuất</t>
-  </si>
-  <si>
     <t>Không sài vẫn tụt pin... 4% trên tiếng..4 phút 1%..thất vọng cho máy này.a 20 ngon và IM hơn..</t>
   </si>
   <si>
@@ -1043,12 +980,6 @@
     <t>Chơi lq thua phím điều khiển k đi được k lẽ đập luôn ĐT chứ .mới mua chưa được 1thang giờ đi cách li sao trả tới về thì hết đổi được rồi chỉ có nước đem bảo hành thôi</t>
   </si>
   <si>
-    <t>Dùng được 2 tháng mà giờ cứ đến tầm chiều là k mở đc máy . khi đó màn hình cứ dật dật bực mình. Bị liên tục nhiều lúc có cuộc gọi k thể vuốt để nghe đc</t>
-  </si>
-  <si>
-    <t>Sản phẩm rất tệ minh mua 1tháng đoi 3 lần vẫn bị lỗi wifi vi ko bắt được.. Minh đã đổi qua dòng khac.mong nhà sản xuất khac phục lỗi này</t>
-  </si>
-  <si>
     <t>Wifi rớt liên tục k bắt dc dù ở kế cục wifi, học online mà v sao dc M muốn đổi trả sp</t>
   </si>
   <si>
@@ -1106,12 +1037,6 @@
     <t>Đt rất tệ mạng thì yếu pin nhanh hết 1 ngày k đủ sài chơi game không được mượt nóng máy</t>
   </si>
   <si>
-    <t>cảm ứng như ..., ngta gọi bấm nge cả chục lần ko ăn, chơ game chug 1 wifi thua cái relme 3 triệu mấy, ae chuẩn bị mua dòng samsung nên suy nghĩ lại. nên chọn vivo vs oppo hoặc ip cũ</t>
-  </si>
-  <si>
-    <t>Lướt face không cũng nóng xôi mua sài k ưng chút nào quá tệ</t>
-  </si>
-  <si>
     <t>Bắt sóng, wifi yếu. Vào zalo muốn chụp ảnh gửi thì nó hiển thị kêu khởi động lại thiết bị (không phải 1 lần mà rất nhiều lần). Cảm biến vân tay không nhạy. Bàn phím đôi khi đơ. Xem ảnh được gửi qua zalo rất là chậm. Gọi video call tắt rồi vẫn reo rồi đứng náy luôn... Nói chung là thất vọng !!!!</t>
   </si>
   <si>
@@ -1121,9 +1046,6 @@
     <t>Tôi mới mua samsungA32 sử dụng được 1 hôm.các vấn đề khác tôi chưa tìm hiểu kỹ.nhưng vấn đề pin theo tôi không được.pin tụt nhanh và rất nhanh nóng.</t>
   </si>
   <si>
-    <t>Máy dùng 6 tháng đã lỗi máy ảnh rồi. Mở khóa vân tay đôi khi không dùng đc .xem tiktok nhiều khi lỗi mất tiếng nữa.</t>
-  </si>
-  <si>
     <t>Hàng k bằng hàng tàu ,,sai lầm khi mua ss a32..cảm ứng chậm...pin nhanh hết,,chip quá yếu...giật lảng như con redmi 9a ram có 2g</t>
   </si>
   <si>
@@ -1142,9 +1064,6 @@
     <t>Máy yếu quá WiFi thì bắt chậm .. Nói chug 1 sao cho dòng máy này ... Dòng máy ngày càg đi xuống.. so sánh thì phần mền quá tệ ..</t>
   </si>
   <si>
-    <t>Quá thất vọng ! Dùng tý là lag đứng màn hình ! Ngoài pin ra thì k có gì để nói . Xin hướng khắc phục</t>
-  </si>
-  <si>
     <t>Bị lỗi củ sạc, sạc không vào gửi bảo hành yêu cầu phải gửi kèm theo máy hơn 10 ngày. Nản</t>
   </si>
   <si>
@@ -1193,9 +1112,6 @@
     <t>mua về dung kha thích. dùng ngon k lag màn hình đẹp loa to rõ, chụp đẹp chưa có điểm nào để chê</t>
   </si>
   <si>
-    <t>Pin rất tốt dung binh thường dc hơn 2 ngày quá ngon</t>
-  </si>
-  <si>
     <t>Mọi thứ đều rất ok điện thoại mượt vân tay nhanh không có lỗi gì và nhân viên rất nhiệt tình bùn cái là không nhận được túi và tai nghe</t>
   </si>
   <si>
@@ -1208,27 +1124,15 @@
     <t>Sản phẩm chất lượng, trước xài 10s,này qua xài 11 pro thấy xứng đáng với hơn 7 triệu</t>
   </si>
   <si>
-    <t>Máy thiết kế đẹp,cầm nắm rất thích, chắc chắn. Tác vụ rất mượt hầu như ko có độ trễ... Game nặng thì cứ vù vù hơn cả 1 số máy có giá cao hơn nhiều... Pin trâu,sạc rất nhanh... Tuyệt vời</t>
-  </si>
-  <si>
     <t>Cảm thấy hải lòng, Nhân viên ĐMX nhiệt tình thân thiện, mình không yêu cầu cao</t>
   </si>
   <si>
-    <t>Cảm ơn! Nhân viên nhẹ nhàng, nhiệt tình, máy đt ổn.</t>
-  </si>
-  <si>
     <t>Đang dùng rất tốt mọi thừ đều ok riêng phần Pin nhanh hao hok chơi game tầm hơn 2 ngày còn chơi game thì 1 ngày</t>
   </si>
   <si>
     <t>Màn hình rực rỡ, sáng Sạc rất nhanh chưa tới 1 tiếng đã đầy, sạc từ 30% tới 100% Hệ điều hành mượt mà, animation tốt hơn hẳn Do xài tần số quét 120hz tốn pin nhưng do có sạc nhanh 67W Nên đỡ hẳn</t>
   </si>
   <si>
-    <t>vMáy đẹp, màn hình mượt, cấu hình cao rất đáng mua với giá hợp lý, nói chung máy sài ngon không thất vọng khi mua nha cả nhà</t>
-  </si>
-  <si>
-    <t>Dùng rất mượt ko thấy lỗi gì , loa kép quá ok</t>
-  </si>
-  <si>
     <t>Đáng mua, ai có nhu cầu về camera và xem phim lướt fb thì mua ngay siêu ngon. Còn game thì mấy game phổ biến như pubg, liên quân... Thì đồ họa phù hợp siêu mượt hơn 3 năm nx, lên genshin thì khá mượt với low setting</t>
   </si>
   <si>
@@ -1313,15 +1217,6 @@
     <t>Mình mua máy về sử dụng khoảng được 2 tháng xong sạc nó báo phát hiện chất lỏng sạc lúc được lúc không, mình mang ra điện máy xanh báo không sao hết, sau đấy vài ngày mình mang ra lại thì báo để mang về hãng bảo hành, vài ngày sau hãng gọi ra báo máy vô nước mà trong khi đấy máy mình sài rất kĩ không có rớt nước hay gì hết, hãng không chịu bảo hành và báo thay cắm sạc 1tr9, ủa gì kì vậy báo chuẩn kháng nước mà, mà chính sách bảo hành gì ki vậy, tự nhiên viện kế máy vô nước rồi không chịu bảo hành cho khách</t>
   </si>
   <si>
-    <t>Hàng thì tốt, còn vụ hóa đơn VAT thì dẹp. Lúc mua nhân viên không hề nói. Mua cách 1 ngày kêu xuất VAT thì ko xuất. Lần này cũng là lần cuối cùng mua hàng tại thế giới di động</t>
-  </si>
-  <si>
-    <t>Các anh chị cho hỏi,máy mình mua được 3 tuần mà giờ không rơi rớt lại tróc 2 mảng sơn thì có bên mình có hỗ trợ gì k ạ. ( máy mình mua mới,màu đen )</t>
-  </si>
-  <si>
-    <t>Máy nhiều lúc bật mạng nhưng không vào dc . Dùng bin nhanh hết</t>
-  </si>
-  <si>
     <t>Xin hỏi mức giá 44,990 triệu là giá trả góp 0 đồng. Còn khi mua trực tiếp được trừ thêm 10% hả shop?</t>
   </si>
   <si>
@@ -1361,9 +1256,6 @@
     <t>Điện thoại rất lag. Mở xem tin nhắn độ trễ cao dù mới mua và chỉ cài facebook, zalo.</t>
   </si>
   <si>
-    <t>Vừa qua 1 năm hết bảo hành hư sạc rồi bây giờ mất sạc nhanh luôn quá thất vọng về Samsung mong đc chăm sóc khách hàng phản hồi som</t>
-  </si>
-  <si>
     <t>Điện thoại gì mà xài mới được đúng 1 năm 1 tuần vừa hết hạn bảo hành thì liền hư chuôi xạc, ứng dụng thì chưa gì đã xuống cấp load rất chậm. Lúc mới mua thì gọi điện hoại toàn hút tạp âm không nghe được gì</t>
   </si>
   <si>
@@ -1379,9 +1271,6 @@
     <t>xài phê chữ ê kéo dài , nói chung là ok trong mức giá trên 20 triệu</t>
   </si>
   <si>
-    <t>cho mình hỏi bên TGDD có nhận thanh toán bằng Momo không?</t>
-  </si>
-  <si>
     <t>Dùng thích mà. Đẹp. Pin khỏe. Nói chung là mê. Nhìn đẹp nữa. Nhìu ốp đẹp lắm. Mình dùng thấy ưng cực kì. Cam đẹp không bị ảo đâu</t>
   </si>
   <si>
@@ -1400,9 +1289,6 @@
     <t>Sao máy em không sạc pin mà máy báo sạc, sạc đến 100 thì máy không báo sạc nữa nhưng dùng mãi không hết khởi động lại máy thì 74 nhưng báo sạc là lỗi gì ạ</t>
   </si>
   <si>
-    <t>Sai lầm khi mua máy này , dùng chán dã man . Sạc thì chậm , mà dùng thì nhanh hết pin . Thi thoảng thì đơ , đang xem video trên Facebook thì tự thoát mất , vào lại thì lại có . Nói chung ko lên mua máy này với tầm tiền 8 triệu như này</t>
-  </si>
-  <si>
     <t>Máy sạc rất chậm mà nhanh hết pin. Mới mua được 1 tuần mà lag quá, màn hình có lúc đơ không gửi đc tin nhắn.</t>
   </si>
   <si>
@@ -1427,30 +1313,15 @@
     <t>Được mỗi cái pin khoẻ, máy cực lag, bấm vào phải chờ 1 lúc, chụp hình rất xấu.</t>
   </si>
   <si>
-    <t>sao xem phim trên youtube không được rõ mà xem đt khát thì dược với lại pin 5000 mà nhanh hết</t>
-  </si>
-  <si>
     <t>Mình trả muốn hoàn trả sản phẩm thì có cần bao gồm chi phí gì không ạ mình mới mua được 4 ngày</t>
   </si>
   <si>
-    <t>mình mới mua điện thoại này được mấy ngày . mà ở trong phòng lước tiktok chơi gaem k được thì phải làm sao.</t>
-  </si>
-  <si>
-    <t>Em mới mua máy hôm m4 tối để qua đêm thì nó tuột khoản 60% cho em hỏi có cách nào khắc phục không ạ</t>
-  </si>
-  <si>
     <t>Mua được gần 1 tháng, máy gọi zalo, messenger rất nóng, nếu muốn đổi qua dòng khác được không. Tôi mua trả góp. Cảm ơn</t>
   </si>
   <si>
     <t>Sản phẩm đẹp nhẹ kỷ niệm đẹp với bản Marvel này cho 5* luôn.hehe.còn là người đầu tiên ở Hải Phòng lấy máy ngon</t>
   </si>
   <si>
-    <t>Tệ kinh khủng khiếp, không còn 1 từ nào diễn tả nổi, đt quá lag, lỗi phần mềm tùm lum, reset rồi vẫn lỗi ch play, đơ, chụp quá xấu, mau nóng, ko đáng mua, vậy mà lúc mua nhân viên tư vấn hay lắm đấy, ngon lắm đấy, sang xịn mịn lắm đấy, người ta mua thì chất lượng quá kém, muốn đổi máy khác nhưng lại mất phí nên quá bực mình, lũ lừa đảo, đừng hòng lần sau tin tưởng thế giới di động nữa</t>
-  </si>
-  <si>
-    <t>Mơi mua được 3 tháng mà điện thoại chủ bị chậm rồi thoát ứng dụng đi mua thì tự vấn cho cố vào bảo chơi game ngon fb con văng chứ nói gì đến game</t>
-  </si>
-  <si>
     <t>Máy giật lag, vào zalo load tin nhắn cả tiếng :))), tư vấn thì tốt lắm lúc sử dụng thì chả ra gì, số tiền không xứng với chất lượng</t>
   </si>
   <si>
@@ -1466,9 +1337,6 @@
     <t>mới xài được 1 ngày máy khi call video bên kia nghe bị rè. đăng nhập email bị out ra</t>
   </si>
   <si>
-    <t>Mua về lúc đầu lỗi máy ra đổi mới...xong về Sài cũng bị lỗi màu này kìa . Điện thoại chỉ mua vé chơi game giờ để gọi đt thì loa ko nghe được .hối hận khi mua máy này…</t>
-  </si>
-  <si>
     <t>Máy thiết kế đẹp,mỏng nhẹ. Màn hình cảm ứng mượt.cam bình thường không có gì đặc sắc cũng như những dòng máy khác.loa nghe nhạc nhỏ.</t>
   </si>
   <si>
@@ -1484,9 +1352,6 @@
     <t>Gọi video mesenger và Zalo nghe ko được. Nói đầu dây bên kia nghe được họ nói lại không nghe được. Thỉnh thoảng đơ máy</t>
   </si>
   <si>
-    <t>Điện thoại xài đc 1 tháng rồi nó bị loạn cảm ứng thì giải quyết sao ạ mong được giải quyết ạ</t>
-  </si>
-  <si>
     <t>Mua được khoảng 2 tuần, Máy khá tệ, loa ngoài cực kì có vấn đề, như để mọi người chống điếc mà thôi. Thanh thông báo có lúc kéo xuống được lúc không, pin 5000mAh mà thua cả pin 4000mAh, mau hết pin nữa. Giao diện thuần google dùng không quen, không thể đổi giao diện khác được, dù gg thuần giúp máy nhẹ hơn. Vì máy giá rẻ nên camera chụp ảnh tệ cũng có thể hiểu được, quay video có chóng rung nên cũng tạm ổn. Vân tay trang bị cho có thôi, mở khoá rất chậm thậm chí không nhận được dấu vân tay, mở khoá khuôn mặt cũng rất chậm thua con oppo a83 cũ của mình nữa. Nói chung nên mua dòng máy khác, con này lỗi nhiều lắm, chỉ nên mua cho người lớn tuổi sử dụng thôi</t>
   </si>
   <si>
@@ -1559,13 +1424,265 @@
     <t>Vừa mua dùng đc 10 ngày thì đơ lác,rồi màn hình không hiển nữa,mang ra đổi máy khác bị phi 10% ,về lại đơ lác,chán sản phẩm của nokia quá rồi</t>
   </si>
   <si>
-    <t>pin tạm được còn phát wifi màn hình sleep là ngắt wifi luôn , ko lẻ để màn hình sáng hoài pin nào chịu nổi. mọi người có cách khắc phục chưa</t>
-  </si>
-  <si>
     <t>Điện thoại mới mua , mà sao thao tác chậm quá , chức năng sữ lý quay lại chậm . chậm hơn cái nokia đời củ , cách đây 10 năm .</t>
   </si>
   <si>
-    <t>Mình không hài lòng sp iPhone 13promax 1t mua tại thế giới di động. Dung lượng máy 1T mà mình cài thêm có Facebook, messenger, shopee mà còn trống giá 3.2gh. iPhone vừa chạy ios vừa chạy được ch play. Mới tải 3 ứng dụng trên ch play. Máy mua từ 12/21 mà như cục sắt. Lên YouTube xem thì báo bộ nhớ trong hết dung lượng yêu cầu làm trống bộ nhớ</t>
+    <t>pin tạm được còn phát wifi màn hình sleep là ngắt wifi luôn , không lẻ để màn hình sáng hoài pin nào chịu nổi. mọi người có cách khắc phục chưa</t>
+  </si>
+  <si>
+    <t>Hàng thì tốt, còn vụ hóa đơn VAT thì dẹp. Lúc mua nhân viên không hề nói. Mua cách 1 ngày kêu xuất VAT thì không xuất. Lần này cũng là lần cuối cùng mua hàng tại thế giới di động</t>
+  </si>
+  <si>
+    <t>Máy xài bình thường nhưng lúc sạc pin máy rất nóng, mình cũng nghe nhiều người phản hồi vấn đề này nhưng không biết tại sao???</t>
+  </si>
+  <si>
+    <t>Các anh chị cho hỏi,máy mình mua được 3 tuần mà giờ không rơi rớt lại tróc 2 mảng sơn thì có bên mình có hỗ trợ gì không ạ. ( máy mình mua mới,màu đen )</t>
+  </si>
+  <si>
+    <t>Máy nhiều lúc bật mạng nhưng không vào được . Dùng pin nhanh hết</t>
+  </si>
+  <si>
+    <t>Mình không hài lòng sản phẩm iPhone 13promax 1t mua tại thế giới di động. Dung lượng máy 1T mà mình cài thêm có Facebook, messenger, shopee mà còn trống giá 3.2gh. iPhone vừa chạy ios vừa chạy được ch play. Mới tải 3 ứng dụng trên ch play. Máy mua từ 12/21 mà như cục sắt. Lên YouTube xem thì báo bộ nhớ trong hết dung lượng yêu cầu làm trống bộ nhớ</t>
+  </si>
+  <si>
+    <t>Vừa qua 1 năm hết bảo hành hư sạc rồi bây giờ mất sạc nhanh luôn quá thất vọng về Samsung mong được chăm sóc khách hàng phản hồi sớm</t>
+  </si>
+  <si>
+    <t>năm rồi máy vẫn trâu ok mượt mà. Dùng nói chung là khá ok, camera ổn định trong tầm giá, pin trâu cực kỳ dùng cực kỳ lâu luôn. Nói chung đây là sản phẩm tầm trung khá ổn định đáng mua. Chỉ tiếc là thiết kế ko đc đẹp cho lắm.</t>
+  </si>
+  <si>
+    <t>M51 rất dởm, sài 2 tháng chót sơn dù không đụng đến nó. Mạng load chậm, nên tẩy chay</t>
+  </si>
+  <si>
+    <t>Mình mua đợt tết. máy xài ok</t>
+  </si>
+  <si>
+    <t>cho mình hỏi bên thế giới di động có nhận thanh toán bằng Momo không?</t>
+  </si>
+  <si>
+    <t>Sai lầm khi mua máy này , dùng chán dã man . Sạc thì chậm , mà dùng thì nhanh hết pin . Thi thoảng thì đơ , đang xem video trên Facebook thì tự thoát mất , vào lại thì lại có . Nói chung không lên mua máy này với tầm tiền 8 triệu như này</t>
+  </si>
+  <si>
+    <t>máy giật lag, cảm ứng có vẻ không được nhậy</t>
+  </si>
+  <si>
+    <t>sao xem phim trên youtube không được rõ mà xem điện khát thì được với lại pin 5000 mà nhanh hết</t>
+  </si>
+  <si>
+    <t>mình mới mua điện thoại này được mấy ngày . mà ở trong phòng lước tiktok chơi game không được thì phải làm sao.</t>
+  </si>
+  <si>
+    <t>Em mới mua máy hôm m4 tối để qua đêm thì nó tuột khoảng 60% cho em hỏi có cách nào khắc phục không ạ</t>
+  </si>
+  <si>
+    <t>Tệ kinh khủng khiếp, không còn 1 từ nào diễn tả nổi, điện thoại quá lag, lỗi phần mềm tùm lum, reset rồi vẫn lỗi ch play, đơ, chụp quá xấu, mau nóng, ko đáng mua, vậy mà lúc mua nhân viên tư vấn hay lắm đấy, ngon lắm đấy, sang xịn mịn lắm đấy, người ta mua thì chất lượng quá kém, muốn đổi máy khác nhưng lại mất phí nên quá bực mình, lũ lừa đảo, đừng hòng lần sau tin tưởng thế giới di động nữa</t>
+  </si>
+  <si>
+    <t>Mới mua được 3 tháng mà điện thoại chủ bị chậm rồi thoát ứng dụng đi mua thì tự vấn cho cố vào bảo chơi game ngon fb còn văng chứ nói gì đến game</t>
+  </si>
+  <si>
+    <t>Mới mua trong ngày gọi Zalo sóng đầy mà cứ báo mạng không ổn định, truy cập đọc báo chậm như rùa bò,</t>
+  </si>
+  <si>
+    <t>Mua về lúc đầu lỗi máy ra đổi mới...xong về Sài cũng bị lỗi màu này kìa . Điện thoại chỉ mua vé chơi game giờ để gọi điện thoại thì loa không nghe được .hối hận khi mua máy này…</t>
+  </si>
+  <si>
+    <t>Ok tôi thấy máy thấy khi Sài thấy ổn</t>
+  </si>
+  <si>
+    <t>Điện thoại xài đượcc 1 tháng rồi nó bị loạn cảm ứng thì giải quyết sao ạ mong được giải quyết ạ</t>
+  </si>
+  <si>
+    <t>không có nút cắm tai nghe. chup anh quá mờ. Đèn pin sáng quá gần. pin khá ổn định đai FM khá ổn</t>
+  </si>
+  <si>
+    <t>Giá tầm trung mình thấy quá ngon . Giờ chưa thấy lỗi đã mua được 1 tháng Xiaomi làm thế này là tốt rồi</t>
+  </si>
+  <si>
+    <t>Máy mới mua 2 ngày không có gì để chê cả</t>
+  </si>
+  <si>
+    <t>Sạc nhanh. Nhân viên chu đáo. Camera chụp 108mp chụp cũng không hơn 48mp là bao. Nói chung oki. Kết con này vì cầm khuôn vuông</t>
+  </si>
+  <si>
+    <t>Đáng mua, ai có nhu cầu về camera và xem phim lướt fb thì mua ngay siêu ngon. Còn game thì mấy game phổ biến như pubg, liên quân... Thì đồ họa phù hợp siêu mượt hơn 3 năm nữa, lên genshin thì khá mượt với low setting</t>
+  </si>
+  <si>
+    <t>Dùng rất mượt không thấy lỗi gì , loa kép quá ok</t>
+  </si>
+  <si>
+    <t>máy đẹp, màn hình mượt, cấu hình cao rất đáng mua với giá hợp lý, nói chung máy sài ngon không thất vọng khi mua nha cả nhà</t>
+  </si>
+  <si>
+    <t>Đang dùng rất tốt mọi thừ đều ok riêng phần Pin nhanh hao không chơi game tầm hơn 2 ngày còn chơi game thì 1 ngày</t>
+  </si>
+  <si>
+    <t>Cảm ơn! Nhân viên nhẹ nhàng, nhiệt tình, máy điện thoại ổn.</t>
+  </si>
+  <si>
+    <t>Máy thiết kế đẹp,cầm nắm rất thích, chắc chắn. Tác vụ rất mượt hầu như không có độ trễ... Game nặng thì cứ vù vù hơn cả 1 số máy có giá cao hơn nhiều... Pin trâu,sạc rất nhanh... Tuyệt vời</t>
+  </si>
+  <si>
+    <t>sản phẩm thiết kế đẹp. Có camera tới 108mp. Chụp hình sắt nét. Sạc siêu nhanh</t>
+  </si>
+  <si>
+    <t>Màn hình đẹp .cầu hình cũng mạnh đó sạc pin nhanh</t>
+  </si>
+  <si>
+    <t>Pin rất tốt dung bình thường dc hơn 2 ngày quá ngon</t>
+  </si>
+  <si>
+    <t>mua về dùng khá thích. dùng ngon, không lag màn hình đẹp loa to rõ, chụp đẹp chưa có điểm nào để chê</t>
+  </si>
+  <si>
+    <t>Máy mượt thực sự, mình đặt cọc trước và nhận hàng ngày đầu tiên mở bán được giảm 500k kèm tai nghe buds live khá thích. Camera chụp hình nét, Pin cao 5000mah. Màn hình ss thì không có gì phải chê. Phải dùng thêm thời gian để biết như thế nào nữa. Trải nghiệm thực tế hiện tại ok nhé</t>
+  </si>
+  <si>
+    <t>Quá tệ 9tr mà sử dụng không mượt mà. Pin dùng không được ổn. Samsung tầm trung không nên mua</t>
+  </si>
+  <si>
+    <t>Mới mua chưa dyi 1 thág dùng thì pin rất là hao.chỉ lướt fb không mà được 1 ngày đã hết pin</t>
+  </si>
+  <si>
+    <t>Quá thất vọng ! Dùng tý là lag đứng màn hình ! Ngoài pin ra thì không có gì để nói . Xin hướng khắc phục</t>
+  </si>
+  <si>
+    <t>Máy yếu quá WiFi thì bắt chậm .. Nói chung 1 sao cho dòng máy này ... Dòng máy ngày càng đi xuống.. so sánh thì phần mền quá tệ ..</t>
+  </si>
+  <si>
+    <t>cực kỳ tệ. Mua sài chưa được 1 tháng lỗi liên tục. Zalo; messeger không mở bong bóng chat đc. Mở được ghì mất cái list tổng. Muốn đập cái điện thoại luôn. Mua phí tiền</t>
+  </si>
+  <si>
+    <t>Hàng không bằng hàng tàu ,,sai lầm khi mua ss a32..cảm ứng chậm...pin nhanh hết,,chip quá yếu...giật lảng như con redmi 9a ram có 2g</t>
+  </si>
+  <si>
+    <t>Máy dùng 6 tháng đã lỗi máy ảnh rồi. Mở khóa vân tay đôi khi không dùng được .xem tiktok nhiều khi lỗi mất tiếng nữa.</t>
+  </si>
+  <si>
+    <t>Lướt face không cũng nóng xôi mua sài không ưng chút nào quá tệ</t>
+  </si>
+  <si>
+    <t>cảm ứng như ..., ngta gọi bấm nghe cả chục lần không ăn, chơi game chung 1 wifi thua cái relme 3 triệu mấy, ae chuẩn bị mua dòng samsung nên suy nghĩ lại. nên chọn vivo vs oppo hoặc ip cũ</t>
+  </si>
+  <si>
+    <t>Điện thoại rất tệ mạng thì yếu pin nhanh hết 1 ngày không đủ sài chơi game không được mượt nóng máy</t>
+  </si>
+  <si>
+    <t>Sản phẩm lỗi quá trời ,sài rất tệ ,sai làm mua samsung galaxy A32 này,sài được 1 tháng bị lỗi tùm lum</t>
+  </si>
+  <si>
+    <t>Trải nghiệm: Đơ, đơ và đơ. Cảm ứng đút túi quần nhầm liên tục là vân tay. không đụng gì mà nhảy như có ma chạm vào. Mình không chơi game nên ko quan tâm. Ức nhất là người ta gọi đến ấn nhận không ấn đc, ấn hủy không ấn được. Phải đợi 1 lúc gọi lại mới đc. Chắc do cảm ứng vân tay dưới màn hình. Con này không nên mua nhé</t>
+  </si>
+  <si>
+    <t>Wifi rớt liên tục không bắt dc dù ở kế cục wifi, học online mà vậy sao được. Mình muốn đổi trả sản phẩm</t>
+  </si>
+  <si>
+    <t>Sản phẩm rất tệ mình mua 1tháng đổi 3 lần vẫn bị lỗi wifi vì ko bắt được.. Mình đã đổi qua dòng khác.mong nhà sản xuất khác phục lỗi này</t>
+  </si>
+  <si>
+    <t>Dùng được 2 tháng mà giờ cứ đến tầm chiều là k mở đc máy . khi đó màn hình cứ dật dật bực mình. Bị liên tục nhiều lúc có cuộc gọi không thể vuốt để nghe đc</t>
+  </si>
+  <si>
+    <t>Chơi lq thua phím điều khiển k đi được k lẽ đập luôn điện thoại chứ .mới mua chưa được 1 tháng giờ đi cách li sao trả tới về thì hết đổi được rồi chỉ có nước đem bảo hành thôi</t>
+  </si>
+  <si>
+    <t>điện thoại mình mới mua chưa được 1 tháng nữa mà sài mọi thứ thỉ tốt những có cái là chơi game với lại vào nhưng cấu hình đôi khi bị lác và chậm quá</t>
+  </si>
+  <si>
+    <t>Máy bị lỗi wifi ko kết nối tụ động dc, tắt máy mo lên moi kết noi dc Còn 3/4 g thì phai noi la rất rất yếu, dù la vẫn còn toc độ cao mong phắn hồi sớm từ nhà sang xuất</t>
+  </si>
+  <si>
+    <t>Máy bị lỗi wifi ko kết nối tự động được tắt máy mở lên mới kết nối được Còn 3/4 g thì phải nói là rất rất yếu, dù la vẫn còn tốc độ cao mong phắn hồi sớm từ nhà sản xuất</t>
+  </si>
+  <si>
+    <t>Mới dùng đc 1 tháng mà đủ các lỗi, có thông báo cái nó đứng yên trên màn hình không tắt đi được nhảy đủ chỗ</t>
+  </si>
+  <si>
+    <t>tình hình này chắc bỏ ss quá. Bắt sóng wifi qua tệ. Mới mua 2 tuần . Mà báo sóng wifi chấm than. Khuyên ae đừng mua</t>
+  </si>
+  <si>
+    <t>Điện thoại rất tệ, kết nối wifi, youtube, các app khác nữa ...mở rất chậm mình có so sánh thực tế điện thoại cũ vinmart live ) chạy thua điện thoại cũ . Cán bạn không nên dòng sản phảm này</t>
+  </si>
+  <si>
+    <t>Mới mua 2h trước bây giờ cảm ửng không nhạy lướt web facebook máy cứ giật giật thất vọng ghê</t>
+  </si>
+  <si>
+    <t>Máy mới mua mấy hôm lỗi không chụp được ảnh thỉnh thoảng lại bị đơ mạng ra điện máy xanh khắc phục giờ lại lỗi wifi</t>
+  </si>
+  <si>
+    <t>Máy suốt ngày rớt mạng.đơ màn hình.wifi quá kém chưa bao giờ dùng điện thoại nào mà nó chán như ss A 32 này</t>
+  </si>
+  <si>
+    <t>A32 này thực sự thất vọng.nào là treo máy camera đen xì.sóng thì chập chờn. Không đáng 2tr.mua máy này gọi là của nợ</t>
+  </si>
+  <si>
+    <t>hazzz mới mua điện thoại chưa hết mừng Giờ sài được có 1 sim Lỗi điện thoại không thể sài 2 sim Phải lấy điện thoại củ lại sử dụng</t>
+  </si>
+  <si>
+    <t>Ai có ý định mua thì bỏ đi nhé.ram ảo điện thoại giật lác.tôi còn bị tự tắt bật nguồn k lý do</t>
+  </si>
+  <si>
+    <t>Đọc báo toàn đơ, ứng dụng đơn giản máy cũng đơ, màu thì nhợt nhạt, tôi đang sử dụng Samsung A7 2018 cùng cấu hình mà cảm giác khác xa. Thật thất vọng.</t>
+  </si>
+  <si>
+    <t>Máy sài ngon. Khâ hai long. Bữa mua cho mẹ dùng ok quá ra mua thêm cái nưa cho con học online. Nên mua</t>
+  </si>
+  <si>
+    <t>Màn hình đẹp cấu hình cũng mạnh đó sạc pin nhanh</t>
+  </si>
+  <si>
+    <t>Rất hài long...sẽ ủng hộ nhiều hơn</t>
+  </si>
+  <si>
+    <t>Cảm ứng mượt, nhanh. Màn hình khá nét, màu đẹp, sống động, sáng nhìn ngoài trời nắng thoải mái. Pin rất trâu game cả ngày không hết. Tốc chiến, liên quân, world of tank bao mượt. Camera ok. Sử dụng thực tế cảm giác ổn hơn nhiều cấu hình trên giấy. Đáng tiền.</t>
+  </si>
+  <si>
+    <t>sản phẩm tốt</t>
+  </si>
+  <si>
+    <t>dùng rất tốt, chờ đc hơn 26 ngày không giật lag,dùng không lo hỏng, game hay,phong phú, thẻ nhớ 8gb</t>
+  </si>
+  <si>
+    <t>Nói thật mua máy về để dùng cho vui thôi , nhưng mà nó đơ lag lắm luôn , có lẽ nên mua 1 con Nokia làm máy phụ tốt hơn nhiều</t>
+  </si>
+  <si>
+    <t>Xài ok xài ok</t>
+  </si>
+  <si>
+    <t>không có nút cắm tai nghe. Chụp ảnh quá mờ. Đèn pin sáng quá gần. pin khá ổn định đài FM khá ổn</t>
+  </si>
+  <si>
+    <t>Pin trâu thiệt nhưng củ sạc bị hư đi kiếm khắp nơi (kể cả các shop trên mạng) không ra cũng là thiệt luôn.</t>
+  </si>
+  <si>
+    <t>Pin trâu kinh khủng,nghe gọi thoải mái,mỗi tội điện thoại to,bỏ túi đem đi khó, radio bắt sóng kém,hay bị chập chờn</t>
+  </si>
+  <si>
+    <t>Sản phẩm đẹp, loa to đặc biệt nghe đài fm rất hay và không cần dây . Màu green lại mắt</t>
+  </si>
+  <si>
+    <t>Mới sử dụng được máy bữa nhưng thấy rất tốt Pin khá trâu Loa nghe gọi to Âm thanh khỏi bàn</t>
+  </si>
+  <si>
+    <t>Trình ghi âm cuộc gọi k thấy. Nếu muốn ghi âm cuộc gọi t nên dùng app nào. Thử nhìu app vẫn không ghi âm được</t>
+  </si>
+  <si>
+    <t>Xài tốt ổn nha thao tác màn hình hơi chậm không biết về sau còn ổn định hay không cùng chờ nhé</t>
+  </si>
+  <si>
+    <t>sản phẩm thấy ghê</t>
+  </si>
+  <si>
+    <t>không thua gì 3310 chính hãng . mang riềng là TQ nhưng xài còn hơn chính hãng . quá tuyệt</t>
+  </si>
+  <si>
+    <t>điện thoại khá tốt , các chức năng đều OK. Nhân viên TGDD nhiệt tình, chuyện nghiệp. Kể cả anh BV rất nhiệt tình , luôn mua hàng TGDD rất an tâm bh chu đáo.</t>
+  </si>
+  <si>
+    <t>rất tệ . Đt gọi thì đc nhận cuộc gọi thì bảo đường dây bận . Rồi đi cho nhân viên kiểm tra lại nói là do nhà mạng. Trong khi mình gắn . Mobi . Viettel. Vina. Cả 3 mạng lun đều như vậy. Như 3 sim đó gắn máy khác vẫn Sài bình thường nghe gọi vẫn OK . Ngoài đường thì dịch tgdd thì chỗ mở cửa chổ ko đi vòng vòng mấy chỗ mới có chỗ mở cửa để cho nhân viên coi lại dùm . Mà vẫn vậy thôi có 230k để đó trưng chơi chứ chạy tới chạy lui lỡ gặp chị covi nữa thì khổ</t>
+  </si>
+  <si>
+    <t>rất ok nhé mới mua đây mặc dù là máy cũ chỉ 700k thôi nhưng duyệt web,youtube,chơi một số game nhẹ như đánh bài zombie tsunami ok nhé.nv bán k rành nên cài youtube go rồi quá trời ứng dụng bản go nhưng k cần thiết nhé.đt đủ sức đáp ứng bản thường.loa nghe k lớn lắm nhưng rất trong và hay.pin thì sau 6 tiếng sử dụng.đa số cài ung dụng.cài đặt lại máy.nghe nhạc ít.doc báo.thì hao khoảng 30%.noi chung 700k ok r</t>
   </si>
 </sst>
 </file>
@@ -1576,21 +1693,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1598,19 +1715,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1625,6 +1742,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1642,7 +1771,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1651,6 +1780,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1933,15 +2069,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B528"/>
+  <dimension ref="A1:B567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="A310" sqref="A310"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.3984375" customWidth="1"/>
+    <col min="1" max="1" width="255.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2018,7 +2155,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -2050,13 +2187,13 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -2090,7 +2227,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -2106,7 +2243,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -2122,7 +2259,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2138,7 +2275,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -2162,303 +2299,303 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>430</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>470</v>
+      </c>
+      <c r="B32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>431</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>471</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>432</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>397</v>
+      </c>
+      <c r="B37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>513</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>32</v>
+      <c r="A39" t="s">
+        <v>472</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>433</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>398</v>
+      </c>
+      <c r="B43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>434</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>399</v>
+      </c>
+      <c r="B45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>435</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>38</v>
+      <c r="A48" t="s">
+        <v>400</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>436</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" t="s">
+        <v>401</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>437</v>
-      </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="B54" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>402</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>438</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>403</v>
+      </c>
+      <c r="B57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>439</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>404</v>
+      </c>
+      <c r="B59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>440</v>
-      </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="B60" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>405</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>441</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>47</v>
+      <c r="A63" t="s">
+        <v>406</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>442</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>48</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -2466,7 +2603,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -2474,63 +2611,63 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>443</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>52</v>
+      <c r="A70" t="s">
+        <v>408</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>444</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>55</v>
+      <c r="A74" t="s">
+        <v>409</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -2538,15 +2675,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -2554,71 +2691,71 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>445</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="B79" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>60</v>
+      <c r="A80" t="s">
+        <v>473</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>446</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>64</v>
+      <c r="A85" t="s">
+        <v>410</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2626,183 +2763,183 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="B89" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>411</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>447</v>
-      </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>10</v>
+      <c r="B91" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>448</v>
+      <c r="A92" s="3" t="s">
+        <v>475</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>413</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>450</v>
+      <c r="A97" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>10</v>
+    <row r="98" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="B99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>75</v>
+      <c r="A101" t="s">
+        <v>477</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>77</v>
+      <c r="A103" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B104" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B104" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>452</v>
+        <v>75</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>7</v>
@@ -2810,7 +2947,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2818,47 +2955,47 @@
     </row>
     <row r="110" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="B111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>83</v>
+      <c r="A113" t="s">
+        <v>418</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -2866,119 +3003,119 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>419</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>456</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="B122" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>420</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B125" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>478</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>457</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>421</v>
+      </c>
+      <c r="B129" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B122" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>458</v>
-      </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B125" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>459</v>
-      </c>
-      <c r="B127" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>460</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -2986,7 +3123,7 @@
     </row>
     <row r="131" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>7</v>
@@ -2994,7 +3131,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -3002,7 +3139,7 @@
     </row>
     <row r="133" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>7</v>
@@ -3010,47 +3147,47 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B136" s="4" t="s">
+    <row r="135" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>424</v>
+      </c>
+      <c r="B136" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>463</v>
+      <c r="A137" s="3" t="s">
+        <v>479</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B138" t="s">
-        <v>5</v>
+    <row r="138" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>101</v>
+      <c r="A139" t="s">
+        <v>425</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3058,159 +3195,159 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>426</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>464</v>
-      </c>
-      <c r="B142" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="B147" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>427</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B143" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B144" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="B150" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>428</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>465</v>
-      </c>
-      <c r="B146" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B147" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+      <c r="B153" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>480</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>466</v>
-      </c>
-      <c r="B149" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B150" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="B156" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>429</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>467</v>
-      </c>
-      <c r="B152" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B153" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>468</v>
-      </c>
-      <c r="B155" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B156" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>469</v>
-      </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>10</v>
@@ -3218,159 +3355,159 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B161" t="s">
+    <row r="161" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>117</v>
+      <c r="A162" t="s">
+        <v>482</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B163" s="4" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>471</v>
+      <c r="A164" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B167" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>431</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>473</v>
+      <c r="A169" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B170" s="5" t="s">
+    <row r="170" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B172" s="4" t="s">
+    <row r="172" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B172" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>10</v>
+    <row r="174" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="B175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B176" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>126</v>
+      <c r="A177" t="s">
+        <v>433</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -3378,279 +3515,279 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B181" s="4" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>477</v>
-      </c>
-      <c r="B182" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>434</v>
+      </c>
+      <c r="B184" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B183" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B184" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B185" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>478</v>
+      <c r="A188" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B191" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B192" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>436</v>
+      </c>
+      <c r="B192" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>480</v>
+      <c r="A193" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>437</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B198" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>482</v>
-      </c>
-      <c r="B198" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B199" t="s">
-        <v>10</v>
+    <row r="199" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
-        <v>143</v>
+      <c r="A200" t="s">
+        <v>438</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>439</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>460</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B201" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>483</v>
-      </c>
-      <c r="B203" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B204" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
+      <c r="B211" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B205" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>505</v>
-      </c>
-      <c r="B206" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B207" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B208" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>484</v>
-      </c>
-      <c r="B210" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B211" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
-        <v>153</v>
+      <c r="A212" t="s">
+        <v>440</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -3658,95 +3795,95 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>485</v>
+      <c r="A218" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B219" t="s">
+    <row r="219" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
-        <v>160</v>
+      <c r="A220" t="s">
+        <v>441</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>151</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>486</v>
+      <c r="A222" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="B222" t="s">
-        <v>151</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B225" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
-        <v>164</v>
+      <c r="A226" t="s">
+        <v>442</v>
       </c>
       <c r="B226" t="s">
         <v>7</v>
@@ -3754,87 +3891,87 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B229" s="4" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B229" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>499</v>
+      <c r="A230" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B231" t="s">
-        <v>5</v>
+    <row r="231" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
-        <v>169</v>
+      <c r="A232" t="s">
+        <v>454</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>7</v>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>488</v>
+      <c r="A235" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B236" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
-        <v>173</v>
+      <c r="A237" t="s">
+        <v>443</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -3842,7 +3979,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -3850,15 +3987,15 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -3866,167 +4003,167 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>506</v>
+        <v>170</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B242" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B242" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>507</v>
+      <c r="A243" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B244" t="s">
+        <v>172</v>
+      </c>
+      <c r="B244" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
-        <v>179</v>
+      <c r="A246" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="B246" t="s">
-        <v>151</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
-        <v>180</v>
+      <c r="A247" t="s">
+        <v>463</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>5</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>489</v>
+      <c r="A250" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B251" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B252" s="5" t="s">
+    <row r="251" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>444</v>
+      </c>
+      <c r="B252" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>490</v>
+      <c r="A253" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>7</v>
+    <row r="254" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>492</v>
+        <v>446</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>493</v>
+        <v>447</v>
       </c>
       <c r="B259" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B260" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="3" t="s">
-        <v>189</v>
+      <c r="A261" t="s">
+        <v>448</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -4034,343 +4171,343 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B262" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B263" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B263" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>494</v>
+      <c r="A264" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="B264" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="B266" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B267" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="B268" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>497</v>
-      </c>
-      <c r="B269" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B269" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="3" t="s">
-        <v>194</v>
+      <c r="A270" t="s">
+        <v>451</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B271" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>452</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>498</v>
+      <c r="A272" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
-        <v>196</v>
+      <c r="A273" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="3" t="s">
-        <v>197</v>
+      <c r="A274" t="s">
+        <v>453</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>7</v>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>499</v>
+      <c r="A276" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="B278" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B279" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B280" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>455</v>
+      </c>
+      <c r="B280" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>501</v>
+      <c r="A281" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B282" t="s">
-        <v>7</v>
+    <row r="282" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="3" t="s">
-        <v>170</v>
+      <c r="A283" t="s">
+        <v>456</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B284" s="4" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B284" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>502</v>
+      <c r="A285" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="B285" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B286" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="3" t="s">
-        <v>201</v>
+      <c r="A287" t="s">
+        <v>457</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B288" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B288" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>503</v>
+      <c r="A289" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B290" t="s">
+    <row r="290" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B290" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="3" t="s">
-        <v>204</v>
+      <c r="A291" t="s">
+        <v>458</v>
       </c>
       <c r="B291" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>504</v>
+        <v>198</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B293" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>464</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B297" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>465</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B293" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>509</v>
-      </c>
-      <c r="B294" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="3" t="s">
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B295" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B296" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>510</v>
-      </c>
-      <c r="B298" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B299" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B300" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>511</v>
-      </c>
-      <c r="B302" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B303" t="s">
+      <c r="B303" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="3" t="s">
-        <v>512</v>
+      <c r="A304" t="s">
+        <v>467</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
@@ -4378,7 +4515,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B305" t="s">
         <v>7</v>
@@ -4386,55 +4523,55 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>214</v>
+        <v>466</v>
       </c>
       <c r="B306" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B307" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>5</v>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B309" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>489</v>
+      <c r="A310" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B311" t="s">
-        <v>10</v>
+    <row r="311" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="3" t="s">
-        <v>217</v>
+      <c r="A312" t="s">
+        <v>444</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
@@ -4442,15 +4579,15 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B313" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
@@ -4458,31 +4595,31 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>219</v>
+        <v>552</v>
       </c>
       <c r="B315" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B317" t="s">
-        <v>5</v>
+    <row r="317" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>221</v>
+        <v>551</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -4490,47 +4627,47 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>222</v>
+        <v>550</v>
       </c>
       <c r="B319" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="B320" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>224</v>
+        <v>549</v>
       </c>
       <c r="B321" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B322" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B323" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B323" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>227</v>
+        <v>548</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -4538,31 +4675,31 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B326" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B327" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B327" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>231</v>
+        <v>547</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
@@ -4570,71 +4707,71 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>232</v>
+        <v>546</v>
       </c>
       <c r="B329" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B330" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B331" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="B332" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B333" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="B335" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B336" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B337" t="s">
         <v>5</v>
@@ -4642,31 +4779,31 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B338" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="B339" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B340" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
@@ -4674,15 +4811,15 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>240</v>
+        <v>449</v>
       </c>
       <c r="B342" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
@@ -4690,7 +4827,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
@@ -4698,7 +4835,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
@@ -4706,7 +4843,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -4714,7 +4851,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -4722,7 +4859,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>246</v>
+        <v>545</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
@@ -4730,7 +4867,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B349" t="s">
         <v>5</v>
@@ -4738,15 +4875,15 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B350" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
@@ -4754,7 +4891,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B352" t="s">
         <v>5</v>
@@ -4762,7 +4899,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
@@ -4770,7 +4907,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
@@ -4778,15 +4915,15 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>253</v>
+        <v>544</v>
       </c>
       <c r="B355" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B356" t="s">
         <v>7</v>
@@ -4794,7 +4931,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B357" t="s">
         <v>5</v>
@@ -4802,7 +4939,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
@@ -4810,7 +4947,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B359" t="s">
         <v>5</v>
@@ -4818,7 +4955,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>258</v>
+        <v>543</v>
       </c>
       <c r="B360" t="s">
         <v>5</v>
@@ -4826,23 +4963,23 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>259</v>
+        <v>542</v>
       </c>
       <c r="B361" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B362" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>261</v>
+        <v>541</v>
       </c>
       <c r="B363" t="s">
         <v>7</v>
@@ -4850,55 +4987,55 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="B364" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>263</v>
+        <v>540</v>
       </c>
       <c r="B365" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="B366" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B367" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="B368" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B369" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B370" t="s">
         <v>7</v>
@@ -4906,7 +5043,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B371" t="s">
         <v>7</v>
@@ -4914,23 +5051,23 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B372" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B373" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B374" t="s">
         <v>7</v>
@@ -4938,47 +5075,47 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="B375" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B376" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B377" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>276</v>
+        <v>539</v>
       </c>
       <c r="B378" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B379" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="B380" t="s">
         <v>5</v>
@@ -4986,7 +5123,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B381" t="s">
         <v>7</v>
@@ -4994,39 +5131,39 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B382" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B383" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B384" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B385" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>284</v>
+        <v>538</v>
       </c>
       <c r="B386" t="s">
         <v>5</v>
@@ -5034,47 +5171,47 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B387" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B388" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B389" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="B390" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="B391" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="B392" t="s">
         <v>5</v>
@@ -5082,7 +5219,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B393" t="s">
         <v>5</v>
@@ -5090,23 +5227,23 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="B394" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B395" t="s">
+    <row r="395" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B395" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>294</v>
+        <v>537</v>
       </c>
       <c r="B396" t="s">
         <v>5</v>
@@ -5114,7 +5251,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>295</v>
+        <v>536</v>
       </c>
       <c r="B397" t="s">
         <v>5</v>
@@ -5122,111 +5259,111 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="B398" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B399" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>298</v>
+        <v>535</v>
       </c>
       <c r="B400" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="B401" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B402" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B403" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B403" s="10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>302</v>
+        <v>534</v>
       </c>
       <c r="B404" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B405" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>304</v>
+        <v>499</v>
       </c>
       <c r="B406" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="B407" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>306</v>
+        <v>533</v>
       </c>
       <c r="B408" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="B409" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B410" t="s">
+    <row r="410" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B410" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>309</v>
+        <v>532</v>
       </c>
       <c r="B411" t="s">
         <v>7</v>
@@ -5234,23 +5371,23 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="B412" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B413" t="s">
+    <row r="413" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B413" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="B414" t="s">
         <v>7</v>
@@ -5258,7 +5395,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="B415" t="s">
         <v>7</v>
@@ -5266,7 +5403,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="B416" t="s">
         <v>7</v>
@@ -5274,7 +5411,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="B417" t="s">
         <v>7</v>
@@ -5282,7 +5419,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="B418" t="s">
         <v>7</v>
@@ -5290,7 +5427,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="B419" t="s">
         <v>7</v>
@@ -5298,23 +5435,23 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="B420" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B421" t="s">
+    <row r="421" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B421" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="B422" t="s">
         <v>7</v>
@@ -5322,7 +5459,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="B423" t="s">
         <v>7</v>
@@ -5330,7 +5467,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B424" t="s">
         <v>7</v>
@@ -5338,39 +5475,39 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>323</v>
+        <v>529</v>
       </c>
       <c r="B425" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B426" t="s">
+    <row r="426" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B426" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>325</v>
+        <v>528</v>
       </c>
       <c r="B427" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B428" t="s">
+    <row r="428" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B428" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>327</v>
+        <v>527</v>
       </c>
       <c r="B429" t="s">
         <v>7</v>
@@ -5378,7 +5515,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="B430" t="s">
         <v>7</v>
@@ -5386,7 +5523,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B431" t="s">
         <v>7</v>
@@ -5394,7 +5531,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="B432" t="s">
         <v>7</v>
@@ -5402,7 +5539,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="B433" t="s">
         <v>7</v>
@@ -5410,7 +5547,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="B434" t="s">
         <v>7</v>
@@ -5418,7 +5555,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="B435" t="s">
         <v>7</v>
@@ -5426,7 +5563,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="B436" t="s">
         <v>7</v>
@@ -5434,23 +5571,23 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="B437" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B438" t="s">
+    <row r="438" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B438" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>337</v>
+        <v>526</v>
       </c>
       <c r="B439" t="s">
         <v>7</v>
@@ -5458,23 +5595,23 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="B440" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B441" t="s">
+    <row r="441" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B441" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>340</v>
+        <v>525</v>
       </c>
       <c r="B442" t="s">
         <v>7</v>
@@ -5482,23 +5619,23 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="B443" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B444" t="s">
+    <row r="444" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B444" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>343</v>
+        <v>524</v>
       </c>
       <c r="B445" t="s">
         <v>7</v>
@@ -5506,7 +5643,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="B446" t="s">
         <v>7</v>
@@ -5514,23 +5651,23 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="B447" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B448" t="s">
+    <row r="448" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B448" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>347</v>
+        <v>523</v>
       </c>
       <c r="B449" t="s">
         <v>7</v>
@@ -5538,7 +5675,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="B450" t="s">
         <v>7</v>
@@ -5546,7 +5683,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="B451" t="s">
         <v>7</v>
@@ -5554,23 +5691,23 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="B452" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B453" t="s">
+    <row r="453" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B453" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>352</v>
+        <v>522</v>
       </c>
       <c r="B454" t="s">
         <v>7</v>
@@ -5578,23 +5715,23 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="B455" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B456" t="s">
+    <row r="456" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B456" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="B457" t="s">
         <v>7</v>
@@ -5602,7 +5739,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="B458" t="s">
         <v>7</v>
@@ -5610,7 +5747,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="B459" t="s">
         <v>7</v>
@@ -5618,23 +5755,23 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="B460" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B461" t="s">
+    <row r="461" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B461" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>360</v>
+        <v>519</v>
       </c>
       <c r="B462" t="s">
         <v>7</v>
@@ -5642,7 +5779,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>361</v>
+        <v>518</v>
       </c>
       <c r="B463" t="s">
         <v>7</v>
@@ -5650,39 +5787,39 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>362</v>
+        <v>517</v>
       </c>
       <c r="B464" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B465" t="s">
+    <row r="465" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B465" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>364</v>
+        <v>516</v>
       </c>
       <c r="B466" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B467" t="s">
+    <row r="467" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B467" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>366</v>
+        <v>515</v>
       </c>
       <c r="B468" t="s">
         <v>7</v>
@@ -5690,7 +5827,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="B469" t="s">
         <v>7</v>
@@ -5698,7 +5835,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="B470" t="s">
         <v>7</v>
@@ -5706,7 +5843,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="B471" t="s">
         <v>7</v>
@@ -5714,7 +5851,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="B472" t="s">
         <v>7</v>
@@ -5722,7 +5859,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="B473" t="s">
         <v>7</v>
@@ -5730,7 +5867,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="B474" t="s">
         <v>7</v>
@@ -5738,7 +5875,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="B475" t="s">
         <v>7</v>
@@ -5746,7 +5883,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="B476" t="s">
         <v>7</v>
@@ -5754,23 +5891,23 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="B477" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B478" t="s">
+    <row r="478" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B478" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>377</v>
+        <v>514</v>
       </c>
       <c r="B479" t="s">
         <v>7</v>
@@ -5778,7 +5915,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="B480" t="s">
         <v>7</v>
@@ -5786,7 +5923,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="B481" t="s">
         <v>7</v>
@@ -5794,7 +5931,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="B482" t="s">
         <v>7</v>
@@ -5802,7 +5939,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="B483" t="s">
         <v>7</v>
@@ -5810,255 +5947,255 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="B484" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="B485" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B486" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B486" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>385</v>
+        <v>513</v>
       </c>
       <c r="B487" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>386</v>
+        <v>512</v>
       </c>
       <c r="B488" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>387</v>
+        <v>511</v>
       </c>
       <c r="B489" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="B490" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="B491" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="B492" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>292</v>
+        <v>510</v>
       </c>
       <c r="B493" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B494" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B494" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>294</v>
+        <v>509</v>
       </c>
       <c r="B495" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="B496" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B496" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
-        <v>391</v>
+        <v>508</v>
       </c>
       <c r="B497" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="B498" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="B499" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="B500" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B501" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B501" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
       <c r="B502" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>397</v>
+        <v>506</v>
       </c>
       <c r="B503" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="B504" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B505" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B505" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>400</v>
+        <v>505</v>
       </c>
       <c r="B506" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B507" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B507" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>402</v>
+        <v>504</v>
       </c>
       <c r="B508" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="B509" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="B510" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>405</v>
+        <v>351</v>
       </c>
       <c r="B511" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>406</v>
+        <v>352</v>
       </c>
       <c r="B512" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="B513" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="B514" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="B515" t="s">
         <v>5</v>
@@ -6066,7 +6203,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="B516" t="s">
         <v>5</v>
@@ -6074,23 +6211,23 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="B517" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B518" t="s">
+    <row r="518" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B518" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
-        <v>413</v>
+        <v>503</v>
       </c>
       <c r="B519" t="s">
         <v>5</v>
@@ -6098,7 +6235,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="B520" t="s">
         <v>5</v>
@@ -6106,23 +6243,23 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="B521" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B522" t="s">
+    <row r="522" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B522" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>417</v>
+        <v>502</v>
       </c>
       <c r="B523" t="s">
         <v>5</v>
@@ -6130,7 +6267,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>418</v>
+        <v>501</v>
       </c>
       <c r="B524" t="s">
         <v>5</v>
@@ -6138,7 +6275,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>419</v>
+        <v>274</v>
       </c>
       <c r="B525" t="s">
         <v>5</v>
@@ -6146,25 +6283,337 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="B526" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B527" t="s">
+    <row r="527" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B527" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>422</v>
+        <v>499</v>
       </c>
       <c r="B528" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B529" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B530" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B531" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B532" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B533" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B534" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B535" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B536" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B537" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B538" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B539" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B540" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B541" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B542" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B543" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B544" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B545" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B546" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B547" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B548" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B549" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B550" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B551" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B552" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B553" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B554" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B555" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B556" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B557" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B558" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B559" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B560" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B561" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B562" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B563" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B564" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B565" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B566" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B567" t="s">
         <v>5</v>
       </c>
     </row>
